--- a/Sales_Marketing/Sales_Data.xlsx
+++ b/Sales_Marketing/Sales_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylan\Documents\GitHub\ISYS40251_Deriving-Value-Data-Analytics\Sales_Marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D079F61-855F-4E9E-87F5-F7DF44F8D23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A03FA9A-A38C-475E-92C2-5A392165D67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8243" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8244" uniqueCount="44">
   <si>
     <t>Sales Person</t>
   </si>
@@ -201,6 +201,9 @@
   <si>
     <t>(blank)</t>
   </si>
+  <si>
+    <t>Rev Mar</t>
+  </si>
 </sst>
 </file>
 
@@ -280,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -288,7 +291,7 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -300,12 +303,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -332,19 +349,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="10" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -375,8 +379,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" Requires="tsle">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
+      <mc:Choice Requires="tsle">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Date">
@@ -394,12 +398,12 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2012/timeslicer">
-              <tsle:timeslicer xmlns:tsle="http://schemas.microsoft.com/office/drawing/2012/timeslicer" name="Date"/>
+              <tsle:timeslicer name="Date"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -23160,7 +23164,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{291B8045-F299-45D4-8C9D-E9E8345F4744}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{291B8045-F299-45D4-8C9D-E9E8345F4744}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -24009,7 +24013,7 @@
   </colItems>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="3" type="dateBetween" evalOrder="-1" id="38" name="Date">
+    <filter fld="3" type="dateBetween" evalOrder="-1" id="44" name="Date">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters and="1">
@@ -24037,14 +24041,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45A3B7BA-97A9-4EBF-B1EB-92AB8D5F5349}" name="Table1" displayName="Table1" ref="A1:F2739" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{45A3B7BA-97A9-4EBF-B1EB-92AB8D5F5349}" name="Table1" displayName="Table1" ref="A1:F2739" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
   <autoFilter ref="A1:F2739" xr:uid="{45A3B7BA-97A9-4EBF-B1EB-92AB8D5F5349}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C646A393-6980-4149-9687-32CB58B8061E}" name="Sales Person"/>
     <tableColumn id="2" xr3:uid="{882EEC48-7AC1-4949-B62A-FC85AA0C4513}" name="Country"/>
     <tableColumn id="3" xr3:uid="{0D941C7B-6BB3-4CDC-862E-372F457A215A}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{72B8CDD2-23FB-4ABB-BE1F-F9E0C33A9526}" name="Date" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{65E4584B-E0B2-44DF-B9A1-19C7D17CC387}" name="Amount" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{72B8CDD2-23FB-4ABB-BE1F-F9E0C33A9526}" name="Date" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{65E4584B-E0B2-44DF-B9A1-19C7D17CC387}" name="Amount" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{465D2D02-EABA-4C48-BCC2-6FAB434B07AB}" name="Sales Growth %"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -24356,7 +24360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FEB095-D110-42D4-AC17-29DEDDC5857E}">
   <dimension ref="A3:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -24473,7 +24477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2739"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -71070,17 +71076,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D89FB9-A3DB-4AF7-AFAD-921054B3D456}">
   <dimension ref="A1:L716"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" cm="1">
         <f t="array" ref="A1:A716">_xlfn.UNIQUE(Sheet1!D2:D2739)</f>
         <v>44927</v>
@@ -71090,7 +71097,7 @@
         <v>34308</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>44928</v>
       </c>
@@ -71102,8 +71109,20 @@
         <f>(B2-B1)/B1</f>
         <v>-0.62999883409117408</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <f>SUM(B1:B357)</f>
+        <v>9983172</v>
+      </c>
+      <c r="G2">
+        <f>SUM(B358:B716)</f>
+        <v>10348617</v>
+      </c>
+      <c r="I2" s="11">
+        <f>(G2-F2)/F2</f>
+        <v>3.6606100746335933E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44929</v>
       </c>
@@ -71116,7 +71135,7 @@
         <v>-0.33496139908618244</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>44930</v>
       </c>
@@ -71129,7 +71148,7 @@
         <v>3.5108978914949063</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>44931</v>
       </c>
@@ -71142,7 +71161,7 @@
         <v>0.13938709592710274</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>44932</v>
       </c>
@@ -71155,7 +71174,7 @@
         <v>-0.11364631588651501</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>44933</v>
       </c>
@@ -71168,7 +71187,7 @@
         <v>0.1153726142805138</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>44934</v>
       </c>
@@ -71181,7 +71200,7 @@
         <v>0.15234875859657301</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44935</v>
       </c>
@@ -71194,7 +71213,7 @@
         <v>-0.75707060489581224</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>44936</v>
       </c>
@@ -71207,7 +71226,7 @@
         <v>0.12941372418387742</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>44937</v>
       </c>
@@ -71220,7 +71239,7 @@
         <v>0.75800029494174903</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44938</v>
       </c>
@@ -71233,7 +71252,7 @@
         <v>-0.1717557251908397</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>44939</v>
       </c>
@@ -71246,7 +71265,7 @@
         <v>-0.18478756266774701</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>44940</v>
       </c>
@@ -71259,7 +71278,7 @@
         <v>0.39576344887563675</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44941</v>
       </c>
@@ -71272,7 +71291,7 @@
         <v>0.88499710712537272</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>44942</v>
       </c>
@@ -71459,6 +71478,9 @@
       <c r="J29" t="s">
         <v>38</v>
       </c>
+      <c r="K29" t="s">
+        <v>43</v>
+      </c>
       <c r="L29" t="s">
         <v>39</v>
       </c>
@@ -71483,6 +71505,10 @@
         <f>SUM(B32:B59)</f>
         <v>876772</v>
       </c>
+      <c r="K30">
+        <f>SUM(B60:B90)</f>
+        <v>666198</v>
+      </c>
       <c r="L30" s="6">
         <f>(J30-H30)/H30</f>
         <v>-3.0236398487350529E-2</v>
@@ -71527,8 +71553,12 @@
       <c r="E32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <f>SUM(B91:B120)</f>
+        <v>892919</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>44959</v>
       </c>
@@ -71541,7 +71571,7 @@
         <v>0.44739208633093525</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44960</v>
       </c>
@@ -71553,8 +71583,16 @@
         <f t="shared" si="0"/>
         <v>4.5892287271597616E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J34" s="6">
+        <f>(J32-K30)/K30</f>
+        <v>0.34032074548407532</v>
+      </c>
+      <c r="L34" s="6">
+        <f>(K30-J30)/J30</f>
+        <v>-0.24016962220508867</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>44961</v>
       </c>
@@ -71567,7 +71605,7 @@
         <v>1.1873413619916833</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>44962</v>
       </c>
@@ -71579,8 +71617,12 @@
         <f t="shared" si="0"/>
         <v>-0.50720934251783822</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J36" s="7">
+        <f>AVERAGE(J34+L34+L30)</f>
+        <v>6.9914724791636115E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>44963</v>
       </c>
@@ -71593,7 +71635,7 @@
         <v>-0.65121871790375507</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44964</v>
       </c>
@@ -71606,7 +71648,7 @@
         <v>1.8722976370035194</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>44965</v>
       </c>
@@ -71619,7 +71661,7 @@
         <v>0.7372158735715536</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>44966</v>
       </c>
@@ -71632,7 +71674,7 @@
         <v>-0.73984137722568477</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44967</v>
       </c>
@@ -71645,7 +71687,7 @@
         <v>0.33268783888458558</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>44968</v>
       </c>
@@ -71658,7 +71700,7 @@
         <v>0.51488354714161166</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>44969</v>
       </c>
@@ -71671,7 +71713,7 @@
         <v>-9.2822494450382306E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>44970</v>
       </c>
@@ -71684,7 +71726,7 @@
         <v>0.34309105190018729</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44971</v>
       </c>
@@ -71697,7 +71739,7 @@
         <v>-0.4720978879416991</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44972</v>
       </c>
@@ -71710,7 +71752,7 @@
         <v>5.0447379633574777E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>44973</v>
       </c>
@@ -71723,7 +71765,7 @@
         <v>0.5021903139449988</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>44974</v>
       </c>
